--- a/cypress/fixtures/BCP - Workshop Automation Test (1).xlsx
+++ b/cypress/fixtures/BCP - Workshop Automation Test (1).xlsx
@@ -133,46 +133,46 @@
     <t>สินค้าแสดงตามลำดับราคาจากน้อยไปมาก</t>
   </si>
   <si>
+    <t>TC_010</t>
+  </si>
+  <si>
+    <t>จัดเรียงสินค้า: Price (High to Low)</t>
+  </si>
+  <si>
+    <t>สินค้าแสดงตามลำดับราคาจากมากไปน้อย</t>
+  </si>
+  <si>
+    <t>TC_011</t>
+  </si>
+  <si>
+    <t>เพิ่มสินค้าหลายรายการลงตะกร้าจากหน้าสินค้าคงคลัง</t>
+  </si>
+  <si>
+    <t>ไอคอนตะกร้าแสดงจำนวนสินค้าที่ถูกต้อง</t>
+  </si>
+  <si>
+    <t>TC_012</t>
+  </si>
+  <si>
+    <t>นำสินค้าออกจากตะกร้าจากหน้าสินค้าคงคลัง</t>
+  </si>
+  <si>
+    <t>ไอคอนตะกร้าแสดงจำนวนสินค้าที่อัปเดตถูกต้อง</t>
+  </si>
+  <si>
+    <t>TC_013</t>
+  </si>
+  <si>
+    <t>Shopping Cart Functionality</t>
+  </si>
+  <si>
+    <t>ไปยังหน้าตะกร้าสินค้า</t>
+  </si>
+  <si>
+    <t>แสดงหน้าตะกร้าสินค้า พร้อมรายการและยอดรวมที่ถูกต้อง</t>
+  </si>
+  <si>
     <t>Not started</t>
-  </si>
-  <si>
-    <t>TC_010</t>
-  </si>
-  <si>
-    <t>จัดเรียงสินค้า: Price (High to Low)</t>
-  </si>
-  <si>
-    <t>สินค้าแสดงตามลำดับราคาจากมากไปน้อย</t>
-  </si>
-  <si>
-    <t>TC_011</t>
-  </si>
-  <si>
-    <t>เพิ่มสินค้าหลายรายการลงตะกร้าจากหน้าสินค้าคงคลัง</t>
-  </si>
-  <si>
-    <t>ไอคอนตะกร้าแสดงจำนวนสินค้าที่ถูกต้อง</t>
-  </si>
-  <si>
-    <t>TC_012</t>
-  </si>
-  <si>
-    <t>นำสินค้าออกจากตะกร้าจากหน้าสินค้าคงคลัง</t>
-  </si>
-  <si>
-    <t>ไอคอนตะกร้าแสดงจำนวนสินค้าที่อัปเดตถูกต้อง</t>
-  </si>
-  <si>
-    <t>TC_013</t>
-  </si>
-  <si>
-    <t>Shopping Cart Functionality</t>
-  </si>
-  <si>
-    <t>ไปยังหน้าตะกร้าสินค้า</t>
-  </si>
-  <si>
-    <t>แสดงหน้าตะกร้าสินค้า พร้อมรายการและยอดรวมที่ถูกต้อง</t>
   </si>
   <si>
     <t>TC_014</t>
@@ -411,7 +411,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -738,7 +738,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="6" width="10.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="23.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="29.719285714285714" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="6" width="64.7192857142857" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="6" width="73.86214285714286" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="6" width="16.576428571428572" customWidth="1" bestFit="1"/>
@@ -761,7 +761,7 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="22.5">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -778,7 +778,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="22.5">
       <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
@@ -795,7 +795,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="22.5">
       <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
@@ -812,7 +812,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="22.5">
       <c r="A5" s="4" t="s">
         <v>16</v>
       </c>
@@ -829,7 +829,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="22.5">
       <c r="A6" s="4" t="s">
         <v>19</v>
       </c>
@@ -846,7 +846,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="22.5">
       <c r="A7" s="4" t="s">
         <v>22</v>
       </c>
@@ -863,7 +863,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="22.5">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
@@ -876,7 +876,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="22.5">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
@@ -889,7 +889,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="22.5">
       <c r="A10" s="4" t="s">
         <v>30</v>
       </c>
@@ -906,7 +906,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="22.5">
       <c r="A11" s="4" t="s">
         <v>33</v>
       </c>
@@ -923,7 +923,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="22.5">
       <c r="A12" s="4" t="s">
         <v>36</v>
       </c>
@@ -937,83 +937,83 @@
         <v>38</v>
       </c>
       <c r="E12" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="22.5">
+      <c r="A13" s="4" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
-      <c r="A13" s="4" t="s">
-        <v>40</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C13" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="E13" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="22.5">
+      <c r="A14" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
-      <c r="A14" s="4" t="s">
-        <v>43</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C14" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="E14" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="22.5">
+      <c r="A15" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
-      <c r="A15" s="4" t="s">
-        <v>46</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C15" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="E15" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="22.5">
+      <c r="A16" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
-      <c r="A16" s="4" t="s">
+      <c r="B16" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="C16" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="D16" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="E16" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E16" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="22.5">
       <c r="A17" s="4" t="s">
         <v>53</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>54</v>
@@ -1022,15 +1022,15 @@
         <v>55</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
+        <v>52</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="22.5">
       <c r="A18" s="4" t="s">
         <v>56</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>57</v>
@@ -1039,10 +1039,10 @@
         <v>58</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
+        <v>52</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="22.5">
       <c r="A19" s="4" t="s">
         <v>59</v>
       </c>
@@ -1056,10 +1056,10 @@
         <v>62</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
+        <v>52</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="22.5">
       <c r="A20" s="4" t="s">
         <v>63</v>
       </c>
@@ -1073,10 +1073,10 @@
         <v>65</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
+        <v>52</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="22.5">
       <c r="A21" s="4" t="s">
         <v>66</v>
       </c>
@@ -1090,10 +1090,10 @@
         <v>68</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
+        <v>52</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="22.5">
       <c r="A22" s="4" t="s">
         <v>69</v>
       </c>
@@ -1107,10 +1107,10 @@
         <v>71</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
+        <v>52</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="22.5">
       <c r="A23" s="4" t="s">
         <v>72</v>
       </c>
@@ -1124,10 +1124,10 @@
         <v>58</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
+        <v>52</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="22.5">
       <c r="A24" s="4" t="s">
         <v>74</v>
       </c>
@@ -1141,10 +1141,10 @@
         <v>76</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
+        <v>52</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="22.5">
       <c r="A25" s="4" t="s">
         <v>77</v>
       </c>
@@ -1158,10 +1158,10 @@
         <v>80</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
+        <v>52</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="22.5">
       <c r="A26" s="4" t="s">
         <v>81</v>
       </c>
@@ -1175,10 +1175,10 @@
         <v>83</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
+        <v>52</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="22.5">
       <c r="A27" s="4" t="s">
         <v>84</v>
       </c>
@@ -1192,10 +1192,10 @@
         <v>86</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="20.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="23.25">
       <c r="A28" s="4" t="s">
         <v>87</v>
       </c>
@@ -1209,7 +1209,7 @@
         <v>89</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/cypress/fixtures/BCP - Workshop Automation Test (1).xlsx
+++ b/cypress/fixtures/BCP - Workshop Automation Test (1).xlsx
@@ -169,7 +169,7 @@
     <t>ไปยังหน้าตะกร้าสินค้า</t>
   </si>
   <si>
-    <t>แสดงหน้าตะกร้าสินค้า พร้อมรายการและยอดรวมที่ถูกต้อง</t>
+    <t>แสดงหน้าตะกร้าสินค้า พร้อมรายการและรายละเอียดถูกต้อง</t>
   </si>
   <si>
     <t>Not started</t>
